--- a/5조_요구사항 정의.xlsx
+++ b/5조_요구사항 정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\나\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D669988C-1943-4A55-A201-1CD310555042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537FCFB7-8EB9-4CED-91BD-7E325E6DCC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="2085" windowWidth="18810" windowHeight="12885" xr2:uid="{DC3B6A97-7913-49D5-9350-F1D09E083033}"/>
+    <workbookView xWindow="1245" yWindow="735" windowWidth="20715" windowHeight="13305" xr2:uid="{DC3B6A97-7913-49D5-9350-F1D09E083033}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의" sheetId="1" r:id="rId1"/>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:AU161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+      <selection activeCell="BD18" sqref="BD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="21" customHeight="1"/>

--- a/5조_요구사항 정의.xlsx
+++ b/5조_요구사항 정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\나\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537FCFB7-8EB9-4CED-91BD-7E325E6DCC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E9BF25-3E74-4E5E-BC08-1B027934860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="735" windowWidth="20715" windowHeight="13305" xr2:uid="{DC3B6A97-7913-49D5-9350-F1D09E083033}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DC3B6A97-7913-49D5-9350-F1D09E083033}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의" sheetId="1" r:id="rId1"/>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>도서 대여는 도서번호, 회원아이디, 대여일, 반납기한일, 반납일로 구성된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>반납은 반납기한일이 지나기 전에 완료되어야 한다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -310,11 +306,15 @@
     <t>34)</t>
   </si>
   <si>
-    <t>도서 예약은 도서번호, 회원아이디, 예약날짜로 구성된다.</t>
+    <t>도서 신청은 신청번호, 도서명, 저자명, 출판사, 아이디, 관리자 승인여부로 구성된다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>도서 신청은 신청번호, 도서명, 저자명, 출판사, 아이디, 관리자 승인여부로 구성된다.</t>
+    <t>도서 예약은 예약 번호, 도서번호, 회원아이디, 예약날짜로 구성된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 대여는 대여 번호, 도서번호, 회원아이디, 대여일, 반납기한일, 반납일로 구성된다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:AU161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD18" sqref="BD18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="21" customHeight="1"/>
@@ -2799,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -2893,7 +2893,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -3031,10 +3031,10 @@
     </row>
     <row r="12" spans="1:47" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="15" spans="1:47" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>8</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="16" spans="1:47" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>7</v>
@@ -3260,10 +3260,10 @@
     </row>
     <row r="17" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -3395,10 +3395,10 @@
     </row>
     <row r="20" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="21" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>33</v>
@@ -3489,10 +3489,10 @@
     </row>
     <row r="22" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="23" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -3583,10 +3583,10 @@
     </row>
     <row r="24" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="25" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>19</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="26" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>32</v>
@@ -3724,10 +3724,10 @@
     </row>
     <row r="27" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="28" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>17</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="29" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -3865,10 +3865,10 @@
     </row>
     <row r="30" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A30" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="31" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>18</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="32" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A32" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>22</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="33" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A33" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>20</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="34" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A34" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>23</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="37" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A37" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>9</v>
@@ -4235,10 +4235,10 @@
     </row>
     <row r="38" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="39" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A39" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="40" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A40" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>21</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="41" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A41" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>24</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="42" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A42" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>25</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="43" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A43" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>10</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="44" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A44" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
@@ -4564,10 +4564,10 @@
     </row>
     <row r="45" spans="1:41" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A45" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>

--- a/5조_요구사항 정의.xlsx
+++ b/5조_요구사항 정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\나\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E9BF25-3E74-4E5E-BC08-1B027934860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BE6F96-F7A3-4390-8847-BE7B129E6383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DC3B6A97-7913-49D5-9350-F1D09E083033}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC3B6A97-7913-49D5-9350-F1D09E083033}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의" sheetId="1" r:id="rId1"/>
@@ -306,15 +306,15 @@
     <t>34)</t>
   </si>
   <si>
-    <t>도서 신청은 신청번호, 도서명, 저자명, 출판사, 아이디, 관리자 승인여부로 구성된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>도서 예약은 예약 번호, 도서번호, 회원아이디, 예약날짜로 구성된다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>도서 대여는 대여 번호, 도서번호, 회원아이디, 대여일, 반납기한일, 반납일로 구성된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 신청은 신청번호, 도서명, 저자명, 출판사, 아이디, 관리자 승인여부, 신청일로 구성된다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C852AD-1071-456E-AA9B-E00AE6415D81}">
   <dimension ref="A1:AU161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="21" customHeight="1"/>
@@ -2846,7 +2846,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -2893,7 +2893,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -3034,7 +3034,7 @@
         <v>67</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
